--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="20A9CB552C4" lockStructure="1"/>
+  <workbookProtection workbookPassword="20446A3C48DF" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -13,10 +13,10 @@
   <definedNames>
     <definedName name="secondary_auditor_name">'Form'!$A$2:$A$3000</definedName>
     <definedName name="secondary_auditor_ein">'Form'!$B$2:$B$3000</definedName>
-    <definedName name="secondary_auditor_address">'Form'!$C$2:$C$3000</definedName>
-    <definedName name="secondary_auditor_city">'Form'!$D$2:$D$3000</definedName>
-    <definedName name="secondary_auditor_state">'Form'!$E$2:$E$3000</definedName>
-    <definedName name="secondary_auditor_zip">'Form'!$F$2:$F$3000</definedName>
+    <definedName name="secondary_auditor_address_street">'Form'!$C$2:$C$3000</definedName>
+    <definedName name="secondary_auditor_address_city">'Form'!$D$2:$D$3000</definedName>
+    <definedName name="secondary_auditor_address_state">'Form'!$E$2:$E$3000</definedName>
+    <definedName name="secondary_auditor_address_zipcode">'Form'!$F$2:$F$3000</definedName>
     <definedName name="secondary_auditor_contact_name">'Form'!$G$2:$G$3000</definedName>
     <definedName name="secondary_auditor_contact_title">'Form'!$H$2:$H$3000</definedName>
     <definedName name="secondary_auditor_contact_phone">'Form'!$I$2:$I$3000</definedName>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="20A9CB552C4"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="20446A3C48DF"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="20A9CB552C4"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="20446A3C48DF"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="20446A3C48DF" lockStructure="1"/>
+  <workbookProtection workbookPassword="107B6656DA4D" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="20446A3C48DF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="107B6656DA4D"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="20446A3C48DF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="107B6656DA4D"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="107B6656DA4D" lockStructure="1"/>
+  <workbookProtection workbookPassword="4D6B085F702" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="107B6656DA4D"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4D6B085F702"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="107B6656DA4D"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4D6B085F702"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="107B6656DA4D" lockStructure="1"/>
+  <workbookProtection workbookPassword="BAA57CE4A8D" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="107B6656DA4D"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BAA57CE4A8D"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="107B6656DA4D"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BAA57CE4A8D"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="BAA57CE4A8D" lockStructure="1"/>
+  <workbookProtection workbookPassword="57819F04A406" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BAA57CE4A8D"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="57819F04A406"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BAA57CE4A8D"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="57819F04A406"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="4D6B085F702" lockStructure="1"/>
+  <workbookProtection workbookPassword="8973B4D3AD5" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4D6B085F702"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8973B4D3AD5"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4D6B085F702"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8973B4D3AD5"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="8973B4D3AD5" lockStructure="1"/>
+  <workbookProtection workbookPassword="207CCD910799" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8973B4D3AD5"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="207CCD910799"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8973B4D3AD5"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="207CCD910799"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="207CCD910799" lockStructure="1"/>
+  <workbookProtection workbookPassword="57819F04A406" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="207CCD910799"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="57819F04A406"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="207CCD910799"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="57819F04A406"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="57819F04A406" lockStructure="1"/>
+  <workbookProtection workbookPassword="8C1D17AA3C2" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="57819F04A406"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8C1D17AA3C2"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="57819F04A406"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8C1D17AA3C2"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
